--- a/results/stats/welch/pow_metric/stat_cmp_condition.xlsx
+++ b/results/stats/welch/pow_metric/stat_cmp_condition.xlsx
@@ -1683,7 +1683,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1692,37 +1692,37 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1451905626134302</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>46.60076043863565</v>
+        <v>18.39908646588759</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3629353710182</v>
+        <v>105.4829290631136</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>81.41829349036533</v>
+        <v>53.4746788136773</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>48.76812584432677</v>
+        <v>48.97758044842761</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3132,37 +3132,37 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.2722323049001815</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>46.60076043863565</v>
+        <v>18.39908646588759</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3629353710182</v>
+        <v>105.4829290631136</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>81.41829349036533</v>
+        <v>53.4746788136773</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>48.76812584432677</v>
+        <v>48.97758044842761</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4572,37 +4572,37 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.8977616454930432</v>
+        <v>0.9619450317124738</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.4959591565564334</v>
+        <v>0.2535474755472087</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>1.658018060233226</v>
+        <v>1.804629777618582</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6647327146943878</v>
+        <v>0.172669570911254</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>0.8772329645184127</v>
+        <v>0.9382825280474103</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6012,37 +6012,37 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.6400483968542043</v>
+        <v>0.8033826638477801</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.4959591565564334</v>
+        <v>0.2535474755472087</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>1.658018060233226</v>
+        <v>1.804629777618582</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6647327146943878</v>
+        <v>0.172669570911254</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>0.8772329645184127</v>
+        <v>0.9382825280474103</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7452,37 +7452,37 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0.9064935064935066</v>
+        <v>0.9709639953542396</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5245053470510138</v>
+        <v>0.279964248664431</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>1.681229900703998</v>
+        <v>1.844683816572394</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0.7332295322203131</v>
+        <v>0.2122221225408055</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
       <c r="R88" t="n">
-        <v>0.9342817857565991</v>
+        <v>0.9347116343494503</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8892,37 +8892,37 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.7944250871080141</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0.5245053470510138</v>
+        <v>0.279964248664431</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>1.681229900703998</v>
+        <v>1.844683816572394</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>0.7332295322203131</v>
+        <v>0.2122221225408055</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>0.9342817857565991</v>
+        <v>0.9347116343494503</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -10332,37 +10332,37 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0.4912280701754387</v>
+        <v>0.6575052854122624</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K124" t="n">
         <v>1.165734175856414e-15</v>
       </c>
       <c r="L124" t="n">
-        <v>0.777244637661646</v>
+        <v>0.3059410783277207</v>
       </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>3.773911951288235</v>
+        <v>3.845220733403442</v>
       </c>
       <c r="O124" t="n">
         <v>1.165734175856414e-15</v>
       </c>
       <c r="P124" t="n">
-        <v>1.159761231254257</v>
+        <v>0.3511008952930804</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
       </c>
       <c r="R124" t="n">
-        <v>2.201424763134724</v>
+        <v>2.314793161898018</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -11772,37 +11772,37 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>0.5589836660617059</v>
+        <v>0.7230443974630021</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K142" t="n">
         <v>1.165734175856414e-15</v>
       </c>
       <c r="L142" t="n">
-        <v>0.777244637661646</v>
+        <v>0.3059410783277207</v>
       </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
       <c r="N142" t="n">
-        <v>3.773911951288235</v>
+        <v>3.845220733403442</v>
       </c>
       <c r="O142" t="n">
         <v>1.165734175856414e-15</v>
       </c>
       <c r="P142" t="n">
-        <v>1.159761231254257</v>
+        <v>0.3511008952930804</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>2.201424763134724</v>
+        <v>2.314793161898018</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -13212,37 +13212,37 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.7816091954022989</v>
+        <v>0.8477801268498943</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
       </c>
       <c r="J160" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>-0.3588543763263155</v>
+        <v>-0.2369788701727982</v>
       </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
       <c r="N160" t="n">
-        <v>0.9795552862968844</v>
+        <v>0.9270354382841266</v>
       </c>
       <c r="O160" t="n">
         <v>0</v>
       </c>
       <c r="P160" t="n">
-        <v>-0.398785751153277</v>
+        <v>-0.4616906112606859</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
       </c>
       <c r="R160" t="n">
-        <v>0.5390222523446146</v>
+        <v>0.5715764764995066</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -14652,37 +14652,37 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>0.7864488808227464</v>
+        <v>0.8879492600422834</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>-0.3588543763263155</v>
+        <v>-0.2369788701727982</v>
       </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
       <c r="N178" t="n">
-        <v>0.9795552862968844</v>
+        <v>0.9270354382841266</v>
       </c>
       <c r="O178" t="n">
         <v>0</v>
       </c>
       <c r="P178" t="n">
-        <v>-0.398785751153277</v>
+        <v>-0.4616906112606859</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
       </c>
       <c r="R178" t="n">
-        <v>0.5390222523446146</v>
+        <v>0.5715764764995066</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -16092,37 +16092,37 @@
         </is>
       </c>
       <c r="H196" t="n">
-        <v>0.825166364186328</v>
+        <v>0.8942917547568708</v>
       </c>
       <c r="I196" t="n">
         <v>2</v>
       </c>
       <c r="J196" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>-0.3615161449822498</v>
+        <v>-0.2339386626983039</v>
       </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>1.365899800741105</v>
+        <v>1.517003529972222</v>
       </c>
       <c r="O196" t="n">
         <v>0</v>
       </c>
       <c r="P196" t="n">
-        <v>-0.6467837894976617</v>
+        <v>-0.6886744561181029</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
       </c>
       <c r="R196" t="n">
-        <v>0.4610995104307877</v>
+        <v>0.4442186420729543</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -17532,37 +17532,37 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>0.5650689654165257</v>
+        <v>0.5924540257549445</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
       </c>
       <c r="J214" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K214" t="n">
         <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>-0.3615161449822498</v>
+        <v>-0.2339386626983039</v>
       </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
       <c r="N214" t="n">
-        <v>1.365899800741105</v>
+        <v>1.517003529972222</v>
       </c>
       <c r="O214" t="n">
         <v>0</v>
       </c>
       <c r="P214" t="n">
-        <v>-0.6467837894976617</v>
+        <v>-0.6886744561181029</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
       </c>
       <c r="R214" t="n">
-        <v>0.4610995104307877</v>
+        <v>0.4442186420729543</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -18972,37 +18972,37 @@
         </is>
       </c>
       <c r="H232" t="n">
-        <v>0.8189223057644112</v>
+        <v>0.8892580287929127</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
       </c>
       <c r="J232" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>-0.3336220742475467</v>
+        <v>-0.1934081414131181</v>
       </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
       <c r="N232" t="n">
-        <v>1.362362406705133</v>
+        <v>1.512757283449389</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
       </c>
       <c r="P232" t="n">
-        <v>-0.6077619542319317</v>
+        <v>-0.6858056247633917</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
       </c>
       <c r="R232" t="n">
-        <v>0.4855141883972942</v>
+        <v>0.4308304074105818</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -20412,37 +20412,37 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>0.5877342040601119</v>
+        <v>0.6400885935769658</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
       </c>
       <c r="J250" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
       </c>
       <c r="L250" t="n">
-        <v>-0.3336220742475467</v>
+        <v>-0.1934081414131181</v>
       </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
       <c r="N250" t="n">
-        <v>1.362362406705133</v>
+        <v>1.512757283449389</v>
       </c>
       <c r="O250" t="n">
         <v>0</v>
       </c>
       <c r="P250" t="n">
-        <v>-0.6077619542319317</v>
+        <v>-0.6858056247633917</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
       </c>
       <c r="R250" t="n">
-        <v>0.4855141883972942</v>
+        <v>0.4308304074105818</v>
       </c>
       <c r="S250" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -21852,37 +21852,37 @@
         </is>
       </c>
       <c r="H268" t="n">
-        <v>0.8638838475499095</v>
+        <v>0.9323467230443977</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
       </c>
       <c r="J268" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K268" t="n">
         <v>0</v>
       </c>
       <c r="L268" t="n">
-        <v>-0.399383041371156</v>
+        <v>-0.2231326577259883</v>
       </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
       <c r="N268" t="n">
-        <v>1.35864463026055</v>
+        <v>1.383291342435723</v>
       </c>
       <c r="O268" t="n">
         <v>0</v>
       </c>
       <c r="P268" t="n">
-        <v>-0.5935375517158296</v>
+        <v>-0.4951105801163629</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
       </c>
       <c r="R268" t="n">
-        <v>0.7186759215554225</v>
+        <v>0.7676752094695882</v>
       </c>
       <c r="S268" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -23292,37 +23292,37 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>0.5856019358741681</v>
+        <v>0.6469344608879493</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
       </c>
       <c r="J286" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K286" t="n">
         <v>0</v>
       </c>
       <c r="L286" t="n">
-        <v>-0.399383041371156</v>
+        <v>-0.2231326577259883</v>
       </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
       <c r="N286" t="n">
-        <v>1.35864463026055</v>
+        <v>1.383291342435723</v>
       </c>
       <c r="O286" t="n">
         <v>0</v>
       </c>
       <c r="P286" t="n">
-        <v>-0.5935375517158296</v>
+        <v>-0.4951105801163629</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
       </c>
       <c r="R286" t="n">
-        <v>0.7186759215554225</v>
+        <v>0.7676752094695882</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -24732,37 +24732,37 @@
         </is>
       </c>
       <c r="H304" t="n">
-        <v>0.1451905626134302</v>
+        <v>0.2219873150105708</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
       </c>
       <c r="J304" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K304" t="n">
         <v>0.001706991997918658</v>
       </c>
       <c r="L304" t="n">
-        <v>0.001815925563478633</v>
+        <v>0.001750001555550549</v>
       </c>
       <c r="M304" t="n">
         <v>2.337592016409679e-06</v>
       </c>
       <c r="N304" t="n">
-        <v>0.0002603211086472392</v>
+        <v>0.0002465760528454427</v>
       </c>
       <c r="O304" t="n">
         <v>0.001706991997918658</v>
       </c>
       <c r="P304" t="n">
-        <v>0.001897314750771437</v>
+        <v>0.001831993980193582</v>
       </c>
       <c r="Q304" t="n">
         <v>2.337592016409679e-06</v>
       </c>
       <c r="R304" t="n">
-        <v>0.0001139999816289608</v>
+        <v>0.0001144896010393073</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -26163,7 +26163,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -26172,37 +26172,37 @@
         </is>
       </c>
       <c r="H322" t="n">
-        <v>0.2722323049001815</v>
+        <v>0.4143763213530655</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
       </c>
       <c r="J322" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K322" t="n">
         <v>0.001706991997918658</v>
       </c>
       <c r="L322" t="n">
-        <v>0.001815925563478633</v>
+        <v>0.001750001555550549</v>
       </c>
       <c r="M322" t="n">
         <v>2.337592016409679e-06</v>
       </c>
       <c r="N322" t="n">
-        <v>0.0002603211086472392</v>
+        <v>0.0002465760528454427</v>
       </c>
       <c r="O322" t="n">
         <v>0.001706991997918658</v>
       </c>
       <c r="P322" t="n">
-        <v>0.001897314750771437</v>
+        <v>0.001831993980193582</v>
       </c>
       <c r="Q322" t="n">
         <v>2.337592016409679e-06</v>
       </c>
       <c r="R322" t="n">
-        <v>0.0001139999816289608</v>
+        <v>0.0001144896010393073</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
@@ -27603,7 +27603,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -27612,37 +27612,37 @@
         </is>
       </c>
       <c r="H340" t="n">
-        <v>0.8977616454930432</v>
+        <v>0.9619450317124738</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
       </c>
       <c r="J340" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K340" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="L340" t="n">
-        <v>0.002286318488908107</v>
+        <v>0.002252605058992314</v>
       </c>
       <c r="M340" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="N340" t="n">
-        <v>0.0002305890353141251</v>
+        <v>0.0002509790752590948</v>
       </c>
       <c r="O340" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="P340" t="n">
-        <v>0.002309790689175991</v>
+        <v>0.002241356955937508</v>
       </c>
       <c r="Q340" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="R340" t="n">
-        <v>0.0001220012663828264</v>
+        <v>0.0001304917408222423</v>
       </c>
       <c r="S340" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -29052,37 +29052,37 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>0.6400483968542043</v>
+        <v>0.8033826638477801</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
       </c>
       <c r="J358" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K358" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="L358" t="n">
-        <v>0.002286318488908107</v>
+        <v>0.002252605058992314</v>
       </c>
       <c r="M358" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="N358" t="n">
-        <v>0.0002305890353141251</v>
+        <v>0.0002509790752590948</v>
       </c>
       <c r="O358" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="P358" t="n">
-        <v>0.002309790689175991</v>
+        <v>0.002241356955937508</v>
       </c>
       <c r="Q358" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="R358" t="n">
-        <v>0.0001220012663828264</v>
+        <v>0.0001304917408222423</v>
       </c>
       <c r="S358" t="inlineStr">
         <is>
@@ -30483,7 +30483,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -30492,37 +30492,37 @@
         </is>
       </c>
       <c r="H376" t="n">
-        <v>0.9064935064935066</v>
+        <v>0.9709639953542396</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
       </c>
       <c r="J376" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K376" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="L376" t="n">
-        <v>0.002290288553339801</v>
+        <v>0.002256278974479311</v>
       </c>
       <c r="M376" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="N376" t="n">
-        <v>0.0002338172244577752</v>
+        <v>0.0002565495949200776</v>
       </c>
       <c r="O376" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="P376" t="n">
-        <v>0.002319316891244724</v>
+        <v>0.002246857731196365</v>
       </c>
       <c r="Q376" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="R376" t="n">
-        <v>0.0001299353371692876</v>
+        <v>0.0001299951184073418</v>
       </c>
       <c r="S376" t="inlineStr">
         <is>
@@ -31923,7 +31923,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -31932,37 +31932,37 @@
         </is>
       </c>
       <c r="H394" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.7944250871080141</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
       </c>
       <c r="J394" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="K394" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="L394" t="n">
-        <v>0.002290288553339801</v>
+        <v>0.002256278974479311</v>
       </c>
       <c r="M394" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="N394" t="n">
-        <v>0.0002338172244577752</v>
+        <v>0.0002565495949200776</v>
       </c>
       <c r="O394" t="n">
         <v>0.002217342917285281</v>
       </c>
       <c r="P394" t="n">
-        <v>0.002319316891244724</v>
+        <v>0.002246857731196365</v>
       </c>
       <c r="Q394" t="n">
         <v>0.0001390751046955962</v>
       </c>
       <c r="R394" t="n">
-        <v>0.0001299353371692876</v>
+        <v>0.0001299951184073418</v>
       </c>
       <c r="S394" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -33372,37 +33372,37 @@
         </is>
       </c>
       <c r="H412" t="n">
-        <v>0.4912280701754387</v>
+        <v>0.6575052854122624</v>
       </c>
       <c r="I412" t="n">
         <v>2</v>
       </c>
       <c r="J412" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K412" t="n">
         <v>0.001761576511479623</v>
       </c>
       <c r="L412" t="n">
-        <v>0.001831824105716328</v>
+        <v>0.001789227554265025</v>
       </c>
       <c r="M412" t="n">
         <v>9.038028804939189e-05</v>
       </c>
       <c r="N412" t="n">
-        <v>0.0003410872492304733</v>
+        <v>0.0003475321574984971</v>
       </c>
       <c r="O412" t="n">
         <v>0.001761576511479623</v>
       </c>
       <c r="P412" t="n">
-        <v>0.001866396065628901</v>
+        <v>0.001793309111530611</v>
       </c>
       <c r="Q412" t="n">
         <v>9.038028804939189e-05</v>
       </c>
       <c r="R412" t="n">
-        <v>0.0001989654042111806</v>
+        <v>0.0002092116727471055</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
@@ -34803,7 +34803,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -34812,37 +34812,37 @@
         </is>
       </c>
       <c r="H430" t="n">
-        <v>0.5589836660617059</v>
+        <v>0.7230443974630021</v>
       </c>
       <c r="I430" t="n">
         <v>2</v>
       </c>
       <c r="J430" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K430" t="n">
         <v>0.001761576511479623</v>
       </c>
       <c r="L430" t="n">
-        <v>0.001831824105716328</v>
+        <v>0.001789227554265025</v>
       </c>
       <c r="M430" t="n">
         <v>9.038028804939189e-05</v>
       </c>
       <c r="N430" t="n">
-        <v>0.0003410872492304733</v>
+        <v>0.0003475321574984971</v>
       </c>
       <c r="O430" t="n">
         <v>0.001761576511479623</v>
       </c>
       <c r="P430" t="n">
-        <v>0.001866396065628901</v>
+        <v>0.001793309111530611</v>
       </c>
       <c r="Q430" t="n">
         <v>9.038028804939189e-05</v>
       </c>
       <c r="R430" t="n">
-        <v>0.0001989654042111806</v>
+        <v>0.0002092116727471055</v>
       </c>
       <c r="S430" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -36252,37 +36252,37 @@
         </is>
       </c>
       <c r="H448" t="n">
-        <v>0.7816091954022989</v>
+        <v>0.8477801268498943</v>
       </c>
       <c r="I448" t="n">
         <v>2</v>
       </c>
       <c r="J448" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K448" t="n">
         <v>5.536345892755335e-05</v>
       </c>
       <c r="L448" t="n">
-        <v>-8.494149218007049e-06</v>
+        <v>1.319341773928192e-05</v>
       </c>
       <c r="M448" t="n">
         <v>0.0001779485283119218</v>
       </c>
       <c r="N448" t="n">
-        <v>0.0001743104215966938</v>
+        <v>0.0001649645919356578</v>
       </c>
       <c r="O448" t="n">
         <v>5.536345892755335e-05</v>
       </c>
       <c r="P448" t="n">
-        <v>-1.559987860193655e-05</v>
+        <v>-2.679370588171729e-05</v>
       </c>
       <c r="Q448" t="n">
         <v>0.0001779485283119218</v>
       </c>
       <c r="R448" t="n">
-        <v>9.591821653210151e-05</v>
+        <v>0.000101711192810801</v>
       </c>
       <c r="S448" t="inlineStr">
         <is>
@@ -37683,7 +37683,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -37692,37 +37692,37 @@
         </is>
       </c>
       <c r="H466" t="n">
-        <v>0.7864488808227464</v>
+        <v>0.8879492600422834</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
       </c>
       <c r="J466" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K466" t="n">
         <v>5.536345892755335e-05</v>
       </c>
       <c r="L466" t="n">
-        <v>-8.494149218007049e-06</v>
+        <v>1.319341773928192e-05</v>
       </c>
       <c r="M466" t="n">
         <v>0.0001779485283119218</v>
       </c>
       <c r="N466" t="n">
-        <v>0.0001743104215966938</v>
+        <v>0.0001649645919356578</v>
       </c>
       <c r="O466" t="n">
         <v>5.536345892755335e-05</v>
       </c>
       <c r="P466" t="n">
-        <v>-1.559987860193655e-05</v>
+        <v>-2.679370588171729e-05</v>
       </c>
       <c r="Q466" t="n">
         <v>0.0001779485283119218</v>
       </c>
       <c r="R466" t="n">
-        <v>9.591821653210151e-05</v>
+        <v>0.000101711192810801</v>
       </c>
       <c r="S466" t="inlineStr">
         <is>
@@ -39123,7 +39123,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -39132,37 +39132,37 @@
         </is>
       </c>
       <c r="H484" t="n">
-        <v>0.825166364186328</v>
+        <v>0.8942917547568708</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
       </c>
       <c r="J484" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K484" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="L484" t="n">
-        <v>0.0004183653953308745</v>
+        <v>0.0004531554567083516</v>
       </c>
       <c r="M484" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="N484" t="n">
-        <v>0.0003724774705735571</v>
+        <v>0.0004136830808443104</v>
       </c>
       <c r="O484" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="P484" t="n">
-        <v>0.0003405736198229453</v>
+        <v>0.0003291501394659264</v>
       </c>
       <c r="Q484" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="R484" t="n">
-        <v>0.0001257406870070397</v>
+        <v>0.0001211373162886317</v>
       </c>
       <c r="S484" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -40572,37 +40572,37 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>0.5650689654165257</v>
+        <v>0.5924540257549445</v>
       </c>
       <c r="I502" t="n">
         <v>2</v>
       </c>
       <c r="J502" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K502" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="L502" t="n">
-        <v>0.0004183653953308745</v>
+        <v>0.0004531554567083516</v>
       </c>
       <c r="M502" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="N502" t="n">
-        <v>0.0003724774705735571</v>
+        <v>0.0004136830808443104</v>
       </c>
       <c r="O502" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="P502" t="n">
-        <v>0.0003405736198229453</v>
+        <v>0.0003291501394659264</v>
       </c>
       <c r="Q502" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="R502" t="n">
-        <v>0.0001257406870070397</v>
+        <v>0.0001211373162886317</v>
       </c>
       <c r="S502" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -42012,37 +42012,37 @@
         </is>
       </c>
       <c r="H520" t="n">
-        <v>0.8189223057644112</v>
+        <v>0.8892580287929127</v>
       </c>
       <c r="I520" t="n">
         <v>2</v>
       </c>
       <c r="J520" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K520" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="L520" t="n">
-        <v>0.0004259720388823449</v>
+        <v>0.0004642080288231895</v>
       </c>
       <c r="M520" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="N520" t="n">
-        <v>0.0003715128320384125</v>
+        <v>0.0004125251400031169</v>
       </c>
       <c r="O520" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="P520" t="n">
-        <v>0.0003512147770213217</v>
+        <v>0.0003299324626245689</v>
       </c>
       <c r="Q520" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="R520" t="n">
-        <v>0.0001323985088244953</v>
+        <v>0.0001174863780720949</v>
       </c>
       <c r="S520" t="inlineStr">
         <is>
@@ -43443,7 +43443,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -43452,37 +43452,37 @@
         </is>
       </c>
       <c r="H538" t="n">
-        <v>0.5877342040601119</v>
+        <v>0.6400885935769658</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
       </c>
       <c r="J538" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K538" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="L538" t="n">
-        <v>0.0004259720388823449</v>
+        <v>0.0004642080288231895</v>
       </c>
       <c r="M538" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="N538" t="n">
-        <v>0.0003715128320384125</v>
+        <v>0.0004125251400031169</v>
       </c>
       <c r="O538" t="n">
         <v>0.000516949946834162</v>
       </c>
       <c r="P538" t="n">
-        <v>0.0003512147770213217</v>
+        <v>0.0003299324626245689</v>
       </c>
       <c r="Q538" t="n">
         <v>0.0002726975070729635</v>
       </c>
       <c r="R538" t="n">
-        <v>0.0001323985088244953</v>
+        <v>0.0001174863780720949</v>
       </c>
       <c r="S538" t="inlineStr">
         <is>
@@ -44883,7 +44883,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -44892,37 +44892,37 @@
         </is>
       </c>
       <c r="H556" t="n">
-        <v>0.8638838475499095</v>
+        <v>0.9323467230443977</v>
       </c>
       <c r="I556" t="n">
         <v>2</v>
       </c>
       <c r="J556" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K556" t="n">
         <v>0.0001215191735824739</v>
       </c>
       <c r="L556" t="n">
-        <v>1.131522677323174e-05</v>
+        <v>5.994895903601422e-05</v>
       </c>
       <c r="M556" t="n">
         <v>0.0002759354689445289</v>
       </c>
       <c r="N556" t="n">
-        <v>0.000374898243179911</v>
+        <v>0.0003816991452619081</v>
       </c>
       <c r="O556" t="n">
         <v>0.0001215191735824739</v>
       </c>
       <c r="P556" t="n">
-        <v>-4.225888908642112e-05</v>
+        <v>-1.509939652133245e-05</v>
       </c>
       <c r="Q556" t="n">
         <v>0.0002759354689445289</v>
       </c>
       <c r="R556" t="n">
-        <v>0.000198308177433537</v>
+        <v>0.0002118288189220803</v>
       </c>
       <c r="S556" t="inlineStr">
         <is>
@@ -46323,7 +46323,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>STR&gt;2Hz</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -46332,37 +46332,37 @@
         </is>
       </c>
       <c r="H574" t="n">
-        <v>0.5856019358741681</v>
+        <v>0.6469344608879493</v>
       </c>
       <c r="I574" t="n">
         <v>2</v>
       </c>
       <c r="J574" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K574" t="n">
         <v>0.0001215191735824739</v>
       </c>
       <c r="L574" t="n">
-        <v>1.131522677323174e-05</v>
+        <v>5.994895903601422e-05</v>
       </c>
       <c r="M574" t="n">
         <v>0.0002759354689445289</v>
       </c>
       <c r="N574" t="n">
-        <v>0.000374898243179911</v>
+        <v>0.0003816991452619081</v>
       </c>
       <c r="O574" t="n">
         <v>0.0001215191735824739</v>
       </c>
       <c r="P574" t="n">
-        <v>-4.225888908642112e-05</v>
+        <v>-1.509939652133245e-05</v>
       </c>
       <c r="Q574" t="n">
         <v>0.0002759354689445289</v>
       </c>
       <c r="R574" t="n">
-        <v>0.000198308177433537</v>
+        <v>0.0002118288189220803</v>
       </c>
       <c r="S574" t="inlineStr">
         <is>
